--- a/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
+++ b/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>外辅工艺单</t>
   </si>
@@ -94,9 +94,6 @@
     <t>配色2</t>
   </si>
   <si>
-    <t>配色3</t>
-  </si>
-  <si>
     <t>辅料1</t>
   </si>
   <si>
@@ -106,7 +103,7 @@
     <t>辅料3</t>
   </si>
   <si>
-    <t>辅料4</t>
+    <t>{pic}</t>
   </si>
   <si>
     <t>{.fabric}</t>
@@ -118,9 +115,6 @@
     <t>{.color1}</t>
   </si>
   <si>
-    <t>{.color2}</t>
-  </si>
-  <si>
     <t>{.accessory0}</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>{.accessory2}</t>
-  </si>
-  <si>
-    <t>{.accessory3}</t>
   </si>
   <si>
     <t>制单人：</t>
@@ -529,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -675,6 +666,24 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -786,7 +795,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +825,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,28 +843,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,10 +873,10 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,11 +1016,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1730,104 +1757,98 @@
       <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="30"/>
+      <c r="G18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="18.75" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1838,7 +1859,7 @@
       <c r="H19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D3:E3"/>
@@ -1861,6 +1882,7 @@
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="D10:F11"/>
+    <mergeCell ref="G12:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
+++ b/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>外辅工艺单</t>
   </si>
   <si>
-    <t xml:space="preserve">                                             日期：{date}</t>
+    <t xml:space="preserve">                                                      日期：{date}</t>
   </si>
   <si>
     <t>款号</t>
@@ -64,7 +64,7 @@
     <t>{styleColorPic}</t>
   </si>
   <si>
-    <t xml:space="preserve"> {data0.remark}</t>
+    <t xml:space="preserve"> {data0.remarks}</t>
   </si>
   <si>
     <t>{data0.role}</t>
@@ -73,7 +73,7 @@
     <t>{data0.price}{data0.unit}</t>
   </si>
   <si>
-    <t xml:space="preserve"> {data1.remark1}</t>
+    <t xml:space="preserve"> {data1.remarks}</t>
   </si>
   <si>
     <t>{data1.role}</t>
@@ -97,31 +97,25 @@
     <t>辅料1</t>
   </si>
   <si>
-    <t>辅料2</t>
-  </si>
-  <si>
     <t>辅料3</t>
   </si>
   <si>
     <t>{pic}</t>
   </si>
   <si>
-    <t>{.fabric}</t>
-  </si>
-  <si>
-    <t>{.color0}</t>
-  </si>
-  <si>
-    <t>{.color1}</t>
-  </si>
-  <si>
-    <t>{.accessory0}</t>
-  </si>
-  <si>
-    <t>{.accessory1}</t>
-  </si>
-  <si>
-    <t>{.accessory2}</t>
+    <t>{fabric0}</t>
+  </si>
+  <si>
+    <t>{color00}</t>
+  </si>
+  <si>
+    <t>{color01}</t>
+  </si>
+  <si>
+    <t>{accessory00}</t>
+  </si>
+  <si>
+    <t>{accessory02}</t>
   </si>
   <si>
     <t>制单人：</t>
@@ -520,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -558,19 +552,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -593,7 +574,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -601,26 +584,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -637,15 +627,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -656,34 +637,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,7 +758,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,7 +788,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,28 +806,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,10 +836,10 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,9 +907,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,91 +923,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,18 +1508,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1592,61 +1530,57 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1656,13 +1590,12 @@
         <v>13</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="88" customHeight="1" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1672,217 +1605,164 @@
         <v>16</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="144" customHeight="1" spans="1:7">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+    <row r="9" s="1" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+    <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="28"/>
+    <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29" t="s">
+    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="C15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="27"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A14" s="32"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A18" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="35" t="s">
+    <row r="16" s="1" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:H4"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A6:C11"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="G12:H17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="F9:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
+++ b/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
@@ -70,7 +70,7 @@
     <t>{data0.role}</t>
   </si>
   <si>
-    <t>{data0.price}{data0.unit}</t>
+    <t>{data0.price}{data0.unitName}</t>
   </si>
   <si>
     <t xml:space="preserve"> {data1.remarks}</t>
@@ -79,7 +79,7 @@
     <t>{data1.role}</t>
   </si>
   <si>
-    <t>{data1.price}{data1.unit}</t>
+    <t>{data1.price}{data1.unitName}</t>
   </si>
   <si>
     <t>实发价</t>
@@ -897,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1511,13 +1508,18 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
@@ -1620,10 +1622,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1631,12 +1633,12 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="18.75" spans="1:7">
       <c r="A9" s="5" t="s">
@@ -1654,86 +1656,86 @@
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.75" spans="1:7">
       <c r="A16" s="7" t="s">
@@ -1744,7 +1746,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
+++ b/src/main/resources/excelTemp/ExternalCraftTemplate.xlsx
@@ -4,22 +4,41 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>外辅工艺单</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                      日期：{date}</t>
+    <t xml:space="preserve">                                                     </t>
+  </si>
+  <si>
+    <t>日期：</t>
+  </si>
+  <si>
+    <t>{date}</t>
   </si>
   <si>
     <t>款号</t>
@@ -139,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -176,34 +195,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -220,6 +211,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -229,41 +259,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +312,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,49 +354,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +486,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,102 +522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -523,6 +542,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -615,17 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -646,6 +687,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,39 +740,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -752,152 +793,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,54 +948,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,73 +1005,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1225,7 +1277,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1234,7 +1286,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1508,21 +1560,21 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="12.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="7.87962962962963" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1533,225 +1585,229 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="20.4" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="17.4" spans="1:7">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="88" customHeight="1" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>21</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="144" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="19"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="9" s="1" customFormat="1" ht="17.4" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="26"/>
+      <c r="D15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="29"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="27"/>
+    <row r="16" s="1" customFormat="1" ht="17.4" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:G4"/>
